--- a/data/dataset_1.xlsx
+++ b/data/dataset_1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="129">
   <si>
     <t>2000-Q1</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>Volume Euro</t>
+  </si>
+  <si>
+    <t>FP.CPI.TOTL.ZG</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -517,26 +520,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -556,9 +546,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -572,12 +559,10 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -978,11 +963,11 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -994,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EU20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="CK1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CQ15" sqref="CQ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1005,313 +990,313 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="Z1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AA1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AC1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AD1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AE1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AF1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AG1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AH1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AI1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AK1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="13" t="s">
+      <c r="AL1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="13" t="s">
+      <c r="AM1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="13" t="s">
+      <c r="AN1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="13" t="s">
+      <c r="AO1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="AP1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AQ1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="13" t="s">
+      <c r="AR1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AS1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="AT1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="13" t="s">
+      <c r="AU1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="13" t="s">
+      <c r="AV1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="13" t="s">
+      <c r="AW1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="13" t="s">
+      <c r="AX1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="13" t="s">
+      <c r="AY1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="13" t="s">
+      <c r="AZ1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="13" t="s">
+      <c r="BA1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="13" t="s">
+      <c r="BB1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="13" t="s">
+      <c r="BC1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="13" t="s">
+      <c r="BD1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="13" t="s">
+      <c r="BE1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="13" t="s">
+      <c r="BF1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="13" t="s">
+      <c r="BG1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="13" t="s">
+      <c r="BH1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="13" t="s">
+      <c r="BI1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="13" t="s">
+      <c r="BJ1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="13" t="s">
+      <c r="BK1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="13" t="s">
+      <c r="BL1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="13" t="s">
+      <c r="BM1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="13" t="s">
+      <c r="BN1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="13" t="s">
+      <c r="BO1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="13" t="s">
+      <c r="BP1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="13" t="s">
+      <c r="BQ1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="13" t="s">
+      <c r="BR1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="13" t="s">
+      <c r="BS1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="13" t="s">
+      <c r="BT1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="13" t="s">
+      <c r="BU1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="13" t="s">
+      <c r="BV1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="13" t="s">
+      <c r="BW1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="13" t="s">
+      <c r="BX1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="13" t="s">
+      <c r="BY1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="13" t="s">
+      <c r="BZ1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="13" t="s">
+      <c r="CA1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="13" t="s">
+      <c r="CB1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="13" t="s">
+      <c r="CC1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="13" t="s">
+      <c r="CD1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="13" t="s">
+      <c r="CE1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="13" t="s">
+      <c r="CF1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="13" t="s">
+      <c r="CG1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="13" t="s">
+      <c r="CH1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="13" t="s">
+      <c r="CI1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="13" t="s">
+      <c r="CJ1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="13" t="s">
+      <c r="CK1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="13" t="s">
+      <c r="CL1" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="13" t="s">
+      <c r="CM1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="13" t="s">
+      <c r="CN1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="13" t="s">
+      <c r="CO1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="13" t="s">
+      <c r="CP1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="13" t="s">
+      <c r="CQ1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="13" t="s">
+      <c r="CR1" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="13" t="s">
+      <c r="CS1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="13" t="s">
+      <c r="CT1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="13" t="s">
+      <c r="CU1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="13" t="s">
+      <c r="CV1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="13" t="s">
+      <c r="CW1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="13" t="s">
+      <c r="CX1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="13" t="s">
+      <c r="CY1" s="12" t="s">
         <v>102</v>
       </c>
       <c r="CZ1" s="4" t="s">
@@ -1322,310 +1307,310 @@
       <c r="A2" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>11458.2</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>12609.7</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>13198.5</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>13988.9</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>12790.3</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>15151.4</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="12">
         <v>15793.1</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="12">
         <v>16453.400000000001</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="12">
         <v>16149.4</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="12">
         <v>17718</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="12">
         <v>18122.3</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="12">
         <v>19831.900000000001</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="12">
         <v>17107</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="12">
         <v>18726</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="12">
         <v>18753.099999999999</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="12">
         <v>20677.8</v>
       </c>
-      <c r="R2" s="13">
+      <c r="R2" s="12">
         <v>18264.2</v>
       </c>
-      <c r="S2" s="13">
+      <c r="S2" s="12">
         <v>21220.5</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="12">
         <v>21478.400000000001</v>
       </c>
-      <c r="U2" s="13">
+      <c r="U2" s="12">
         <v>22953.599999999999</v>
       </c>
-      <c r="V2" s="13">
+      <c r="V2" s="12">
         <v>19913.599999999999</v>
       </c>
-      <c r="W2" s="13">
+      <c r="W2" s="12">
         <v>22628</v>
       </c>
-      <c r="X2" s="13">
+      <c r="X2" s="12">
         <v>23607.200000000001</v>
       </c>
-      <c r="Y2" s="13">
+      <c r="Y2" s="12">
         <v>24796.9</v>
       </c>
-      <c r="Z2" s="13">
+      <c r="Z2" s="12">
         <v>20860.7</v>
       </c>
-      <c r="AA2" s="13">
+      <c r="AA2" s="12">
         <v>22791.1</v>
       </c>
-      <c r="AB2" s="13">
+      <c r="AB2" s="12">
         <v>22832.6</v>
       </c>
-      <c r="AC2" s="13">
+      <c r="AC2" s="12">
         <v>25521.5</v>
       </c>
-      <c r="AD2" s="13">
+      <c r="AD2" s="12">
         <v>22962.799999999999</v>
       </c>
-      <c r="AE2" s="13">
+      <c r="AE2" s="12">
         <v>25587.599999999999</v>
       </c>
-      <c r="AF2" s="13">
+      <c r="AF2" s="12">
         <v>25989.8</v>
       </c>
-      <c r="AG2" s="13">
+      <c r="AG2" s="12">
         <v>27833</v>
       </c>
-      <c r="AH2" s="13">
+      <c r="AH2" s="12">
         <v>24399.4</v>
       </c>
-      <c r="AI2" s="13">
+      <c r="AI2" s="12">
         <v>27622.2</v>
       </c>
-      <c r="AJ2" s="13">
+      <c r="AJ2" s="12">
         <v>28660.9</v>
       </c>
-      <c r="AK2" s="13">
+      <c r="AK2" s="12">
         <v>27677.1</v>
       </c>
-      <c r="AL2" s="13">
+      <c r="AL2" s="12">
         <v>20433.7</v>
       </c>
-      <c r="AM2" s="13">
+      <c r="AM2" s="12">
         <v>22963.3</v>
       </c>
-      <c r="AN2" s="13">
+      <c r="AN2" s="12">
         <v>24361.5</v>
       </c>
-      <c r="AO2" s="13">
+      <c r="AO2" s="12">
         <v>26894</v>
       </c>
-      <c r="AP2" s="13">
+      <c r="AP2" s="12">
         <v>22515.3</v>
       </c>
-      <c r="AQ2" s="13">
+      <c r="AQ2" s="12">
         <v>24561.7</v>
       </c>
-      <c r="AR2" s="13">
+      <c r="AR2" s="12">
         <v>24816.400000000001</v>
       </c>
-      <c r="AS2" s="13">
+      <c r="AS2" s="12">
         <v>27638.3</v>
       </c>
-      <c r="AT2" s="13">
+      <c r="AT2" s="12">
         <v>23046.3</v>
       </c>
-      <c r="AU2" s="13">
+      <c r="AU2" s="12">
         <v>26204.9</v>
       </c>
-      <c r="AV2" s="13">
+      <c r="AV2" s="12">
         <v>26482.9</v>
       </c>
-      <c r="AW2" s="13">
+      <c r="AW2" s="12">
         <v>26185.8</v>
       </c>
-      <c r="AX2" s="13">
+      <c r="AX2" s="12">
         <v>21779.599999999999</v>
       </c>
-      <c r="AY2" s="13">
+      <c r="AY2" s="12">
         <v>24169.8</v>
       </c>
-      <c r="AZ2" s="13">
+      <c r="AZ2" s="12">
         <v>26222.1</v>
       </c>
-      <c r="BA2" s="13">
+      <c r="BA2" s="12">
         <v>27983.4</v>
       </c>
-      <c r="BB2" s="13">
+      <c r="BB2" s="12">
         <v>22480.6</v>
       </c>
-      <c r="BC2" s="13">
+      <c r="BC2" s="12">
         <v>25457.599999999999</v>
       </c>
-      <c r="BD2" s="13">
+      <c r="BD2" s="12">
         <v>26304</v>
       </c>
-      <c r="BE2" s="13">
+      <c r="BE2" s="12">
         <v>27962.3</v>
       </c>
-      <c r="BF2" s="13">
+      <c r="BF2" s="12">
         <v>23460.9</v>
       </c>
-      <c r="BG2" s="13">
+      <c r="BG2" s="12">
         <v>26512</v>
       </c>
-      <c r="BH2" s="13">
+      <c r="BH2" s="12">
         <v>27247</v>
       </c>
-      <c r="BI2" s="13">
+      <c r="BI2" s="12">
         <v>29120.6</v>
       </c>
-      <c r="BJ2" s="13">
+      <c r="BJ2" s="12">
         <v>24803.5</v>
       </c>
-      <c r="BK2" s="13">
+      <c r="BK2" s="12">
         <v>27959.7</v>
       </c>
-      <c r="BL2" s="13">
+      <c r="BL2" s="12">
         <v>28744.2</v>
       </c>
-      <c r="BM2" s="13">
+      <c r="BM2" s="12">
         <v>31324.7</v>
       </c>
-      <c r="BN2" s="13">
+      <c r="BN2" s="12">
         <v>25468.1</v>
       </c>
-      <c r="BO2" s="13">
+      <c r="BO2" s="12">
         <v>28922.9</v>
       </c>
-      <c r="BP2" s="13">
+      <c r="BP2" s="12">
         <v>29965.8</v>
       </c>
-      <c r="BQ2" s="13">
+      <c r="BQ2" s="12">
         <v>32268</v>
       </c>
-      <c r="BR2" s="13">
+      <c r="BR2" s="12">
         <v>27648.799999999999</v>
       </c>
-      <c r="BS2" s="13">
+      <c r="BS2" s="12">
         <v>31355.1</v>
       </c>
-      <c r="BT2" s="13">
+      <c r="BT2" s="12">
         <v>32945.5</v>
       </c>
-      <c r="BU2" s="13">
+      <c r="BU2" s="12">
         <v>35244.800000000003</v>
       </c>
-      <c r="BV2" s="13">
+      <c r="BV2" s="12">
         <v>30224.5</v>
       </c>
-      <c r="BW2" s="13">
+      <c r="BW2" s="12">
         <v>33785.9</v>
       </c>
-      <c r="BX2" s="13">
+      <c r="BX2" s="12">
         <v>34704</v>
       </c>
-      <c r="BY2" s="13">
+      <c r="BY2" s="12">
         <v>37735.199999999997</v>
       </c>
-      <c r="BZ2" s="13">
+      <c r="BZ2" s="12">
         <v>32848.1</v>
       </c>
-      <c r="CA2" s="13">
+      <c r="CA2" s="12">
         <v>36701.9</v>
       </c>
-      <c r="CB2" s="13">
+      <c r="CB2" s="12">
         <v>37605.199999999997</v>
       </c>
-      <c r="CC2" s="13">
+      <c r="CC2" s="12">
         <v>40086.400000000001</v>
       </c>
-      <c r="CD2" s="13">
+      <c r="CD2" s="12">
         <v>33063.800000000003</v>
       </c>
-      <c r="CE2" s="13">
+      <c r="CE2" s="12">
         <v>31484.9</v>
       </c>
-      <c r="CF2" s="13">
+      <c r="CF2" s="12">
         <v>35485.5</v>
       </c>
-      <c r="CG2" s="13">
+      <c r="CG2" s="12">
         <v>38775.300000000003</v>
       </c>
-      <c r="CH2" s="13">
+      <c r="CH2" s="12">
         <v>31699</v>
       </c>
-      <c r="CI2" s="13">
+      <c r="CI2" s="12">
         <v>38539.9</v>
       </c>
-      <c r="CJ2" s="13">
+      <c r="CJ2" s="12">
         <v>40065.9</v>
       </c>
-      <c r="CK2" s="13">
+      <c r="CK2" s="12">
         <v>44645.8</v>
       </c>
-      <c r="CL2" s="13">
+      <c r="CL2" s="12">
         <v>37563.699999999997</v>
       </c>
-      <c r="CM2" s="13">
+      <c r="CM2" s="12">
         <v>42296.2</v>
       </c>
-      <c r="CN2" s="13">
+      <c r="CN2" s="12">
         <v>42466.1</v>
       </c>
-      <c r="CO2" s="13">
+      <c r="CO2" s="12">
         <v>45770.5</v>
       </c>
-      <c r="CP2" s="13">
+      <c r="CP2" s="12">
         <v>40447.800000000003</v>
       </c>
-      <c r="CQ2" s="13">
+      <c r="CQ2" s="12">
         <v>50248.9</v>
       </c>
-      <c r="CR2" s="13">
+      <c r="CR2" s="12">
         <v>51183.1</v>
       </c>
-      <c r="CS2" s="13">
+      <c r="CS2" s="12">
         <v>55522.3</v>
       </c>
-      <c r="CT2" s="13">
+      <c r="CT2" s="12">
         <v>42762.8</v>
       </c>
-      <c r="CU2" s="13">
+      <c r="CU2" s="12">
         <v>52726.400000000001</v>
       </c>
-      <c r="CV2" s="13">
+      <c r="CV2" s="12">
         <v>53825.599999999999</v>
       </c>
-      <c r="CW2" s="13">
+      <c r="CW2" s="12">
         <v>56452</v>
       </c>
-      <c r="CX2" s="13">
+      <c r="CX2" s="12">
         <v>44236.9</v>
       </c>
-      <c r="CY2" s="13">
+      <c r="CY2" s="12">
         <v>54077.7</v>
       </c>
     </row>
@@ -1633,477 +1618,477 @@
       <c r="A3" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13">
         <v>384</v>
       </c>
-      <c r="AM3" s="14">
+      <c r="AM3" s="13">
         <v>402</v>
       </c>
-      <c r="AN3" s="14">
+      <c r="AN3" s="13">
         <v>438</v>
       </c>
-      <c r="AO3" s="14">
+      <c r="AO3" s="13">
         <v>449</v>
       </c>
-      <c r="AP3" s="14">
+      <c r="AP3" s="13">
         <v>469</v>
       </c>
-      <c r="AQ3" s="14">
+      <c r="AQ3" s="13">
         <v>472</v>
       </c>
-      <c r="AR3" s="14">
+      <c r="AR3" s="13">
         <v>467</v>
       </c>
-      <c r="AS3" s="14">
+      <c r="AS3" s="13">
         <v>467</v>
       </c>
-      <c r="AT3" s="14">
+      <c r="AT3" s="13">
         <v>467</v>
       </c>
-      <c r="AU3" s="14">
+      <c r="AU3" s="13">
         <v>461</v>
       </c>
-      <c r="AV3" s="14">
+      <c r="AV3" s="13">
         <v>468</v>
       </c>
-      <c r="AW3" s="14">
+      <c r="AW3" s="13">
         <v>467</v>
       </c>
-      <c r="AX3" s="14">
+      <c r="AX3" s="13">
         <v>479</v>
       </c>
-      <c r="AY3" s="14">
+      <c r="AY3" s="13">
         <v>475</v>
       </c>
-      <c r="AZ3" s="14">
+      <c r="AZ3" s="13">
         <v>466</v>
       </c>
-      <c r="BA3" s="14">
+      <c r="BA3" s="13">
         <v>471</v>
       </c>
-      <c r="BB3" s="14">
+      <c r="BB3" s="13">
         <v>468</v>
       </c>
-      <c r="BC3" s="14">
+      <c r="BC3" s="13">
         <v>443</v>
       </c>
-      <c r="BD3" s="14">
+      <c r="BD3" s="13">
         <v>440</v>
       </c>
-      <c r="BE3" s="14">
+      <c r="BE3" s="13">
         <v>406</v>
       </c>
-      <c r="BF3" s="14">
+      <c r="BF3" s="13">
         <v>345</v>
       </c>
-      <c r="BG3" s="14">
+      <c r="BG3" s="13">
         <v>362</v>
       </c>
-      <c r="BH3" s="14">
+      <c r="BH3" s="13">
         <v>339</v>
       </c>
-      <c r="BI3" s="14">
+      <c r="BI3" s="13">
         <v>325</v>
       </c>
-      <c r="BJ3" s="14">
+      <c r="BJ3" s="13">
         <v>332</v>
       </c>
-      <c r="BK3" s="14">
+      <c r="BK3" s="13">
         <v>313</v>
       </c>
-      <c r="BL3" s="14">
+      <c r="BL3" s="13">
         <v>297</v>
       </c>
-      <c r="BM3" s="14">
+      <c r="BM3" s="13">
         <v>286</v>
       </c>
-      <c r="BN3" s="14">
+      <c r="BN3" s="13">
         <v>262</v>
       </c>
-      <c r="BO3" s="14">
+      <c r="BO3" s="13">
         <v>237</v>
       </c>
-      <c r="BP3" s="14">
+      <c r="BP3" s="13">
         <v>227</v>
       </c>
-      <c r="BQ3" s="14">
+      <c r="BQ3" s="13">
         <v>210</v>
       </c>
-      <c r="BR3" s="14">
+      <c r="BR3" s="13">
         <v>200</v>
       </c>
-      <c r="BS3" s="14">
+      <c r="BS3" s="13">
         <v>199</v>
       </c>
-      <c r="BT3" s="14">
+      <c r="BT3" s="13">
         <v>187</v>
       </c>
-      <c r="BU3" s="14">
+      <c r="BU3" s="13">
         <v>180</v>
       </c>
-      <c r="BV3" s="14">
+      <c r="BV3" s="13">
         <v>170</v>
       </c>
-      <c r="BW3" s="14">
+      <c r="BW3" s="13">
         <v>164</v>
       </c>
-      <c r="BX3" s="14">
+      <c r="BX3" s="13">
         <v>173</v>
       </c>
-      <c r="BY3" s="14">
+      <c r="BY3" s="13">
         <v>170</v>
       </c>
-      <c r="BZ3" s="14">
+      <c r="BZ3" s="13">
         <v>161</v>
       </c>
-      <c r="CA3" s="14">
+      <c r="CA3" s="13">
         <v>157</v>
       </c>
-      <c r="CB3" s="14">
+      <c r="CB3" s="13">
         <v>160</v>
       </c>
-      <c r="CC3" s="14">
+      <c r="CC3" s="13">
         <v>153</v>
       </c>
-      <c r="CD3" s="14">
+      <c r="CD3" s="13">
         <v>168</v>
       </c>
-      <c r="CE3" s="14">
+      <c r="CE3" s="13">
         <v>214</v>
       </c>
-      <c r="CF3" s="14">
+      <c r="CF3" s="13">
         <v>207</v>
       </c>
-      <c r="CG3" s="14">
+      <c r="CG3" s="13">
         <v>198</v>
       </c>
-      <c r="CH3" s="14">
+      <c r="CH3" s="13">
         <v>208</v>
       </c>
-      <c r="CI3" s="14">
+      <c r="CI3" s="13">
         <v>197</v>
       </c>
-      <c r="CJ3" s="14">
+      <c r="CJ3" s="13">
         <v>188</v>
       </c>
-      <c r="CK3" s="14">
+      <c r="CK3" s="13">
         <v>180</v>
       </c>
-      <c r="CL3" s="14">
+      <c r="CL3" s="13">
         <v>173</v>
       </c>
-      <c r="CM3" s="14">
+      <c r="CM3" s="13">
         <v>157</v>
       </c>
-      <c r="CN3" s="14">
+      <c r="CN3" s="13">
         <v>176</v>
       </c>
-      <c r="CO3" s="14">
+      <c r="CO3" s="13">
         <v>189</v>
       </c>
-      <c r="CP3" s="14">
+      <c r="CP3" s="13">
         <v>191</v>
       </c>
-      <c r="CQ3" s="14">
+      <c r="CQ3" s="13">
         <v>196</v>
       </c>
-      <c r="CR3" s="14">
+      <c r="CR3" s="13">
         <v>200</v>
       </c>
-      <c r="CS3" s="14">
+      <c r="CS3" s="13">
         <v>218</v>
       </c>
-      <c r="CT3" s="14">
+      <c r="CT3" s="13">
         <v>221</v>
       </c>
-      <c r="CU3" s="14">
+      <c r="CU3" s="13">
         <v>217</v>
       </c>
-      <c r="CV3" s="14">
+      <c r="CV3" s="13">
         <v>226</v>
       </c>
-      <c r="CW3" s="14">
+      <c r="CW3" s="13">
         <v>217</v>
       </c>
-      <c r="CX3" s="14">
+      <c r="CX3" s="13">
         <v>209</v>
       </c>
-      <c r="CY3" s="14">
+      <c r="CY3" s="13">
         <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:151" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12">
         <v>3917</v>
       </c>
-      <c r="AM4" s="15">
+      <c r="AM4" s="12">
         <v>3907</v>
       </c>
-      <c r="AN4" s="15">
+      <c r="AN4" s="12">
         <v>3875</v>
       </c>
-      <c r="AO4" s="15">
+      <c r="AO4" s="12">
         <v>3874</v>
       </c>
-      <c r="AP4" s="15">
+      <c r="AP4" s="12">
         <v>3870</v>
       </c>
-      <c r="AQ4" s="15">
+      <c r="AQ4" s="12">
         <v>3870</v>
       </c>
-      <c r="AR4" s="15">
+      <c r="AR4" s="12">
         <v>3876</v>
       </c>
-      <c r="AS4" s="15">
+      <c r="AS4" s="12">
         <v>3879</v>
       </c>
-      <c r="AT4" s="15">
+      <c r="AT4" s="12">
         <v>3881</v>
       </c>
-      <c r="AU4" s="15">
+      <c r="AU4" s="12">
         <v>3901</v>
       </c>
-      <c r="AV4" s="15">
+      <c r="AV4" s="12">
         <v>3907</v>
       </c>
-      <c r="AW4" s="15">
+      <c r="AW4" s="12">
         <v>3924</v>
       </c>
-      <c r="AX4" s="15">
+      <c r="AX4" s="12">
         <v>3913</v>
       </c>
-      <c r="AY4" s="15">
+      <c r="AY4" s="12">
         <v>3952</v>
       </c>
-      <c r="AZ4" s="15">
+      <c r="AZ4" s="12">
         <v>3990</v>
       </c>
-      <c r="BA4" s="15">
+      <c r="BA4" s="12">
         <v>3988</v>
       </c>
-      <c r="BB4" s="15">
+      <c r="BB4" s="12">
         <v>3936</v>
       </c>
-      <c r="BC4" s="15">
+      <c r="BC4" s="12">
         <v>4031</v>
       </c>
-      <c r="BD4" s="15">
+      <c r="BD4" s="12">
         <v>4056</v>
       </c>
-      <c r="BE4" s="15">
+      <c r="BE4" s="12">
         <v>4101</v>
       </c>
-      <c r="BF4" s="15">
+      <c r="BF4" s="12">
         <v>4191</v>
       </c>
-      <c r="BG4" s="15">
+      <c r="BG4" s="12">
         <v>4196</v>
       </c>
-      <c r="BH4" s="15">
+      <c r="BH4" s="12">
         <v>4238</v>
       </c>
-      <c r="BI4" s="15">
+      <c r="BI4" s="12">
         <v>4257</v>
       </c>
-      <c r="BJ4" s="15">
+      <c r="BJ4" s="12">
         <v>4272</v>
       </c>
-      <c r="BK4" s="15">
+      <c r="BK4" s="12">
         <v>4325</v>
       </c>
-      <c r="BL4" s="15">
+      <c r="BL4" s="12">
         <v>4360</v>
       </c>
-      <c r="BM4" s="15">
+      <c r="BM4" s="12">
         <v>4383</v>
       </c>
-      <c r="BN4" s="15">
+      <c r="BN4" s="12">
         <v>4424</v>
       </c>
-      <c r="BO4" s="15">
+      <c r="BO4" s="12">
         <v>4476</v>
       </c>
-      <c r="BP4" s="15">
+      <c r="BP4" s="12">
         <v>4500</v>
       </c>
-      <c r="BQ4" s="15">
+      <c r="BQ4" s="12">
         <v>4533</v>
       </c>
-      <c r="BR4" s="15">
+      <c r="BR4" s="12">
         <v>4524</v>
       </c>
-      <c r="BS4" s="15">
+      <c r="BS4" s="12">
         <v>4543</v>
       </c>
-      <c r="BT4" s="15">
+      <c r="BT4" s="12">
         <v>4558</v>
       </c>
-      <c r="BU4" s="15">
+      <c r="BU4" s="12">
         <v>4574</v>
       </c>
-      <c r="BV4" s="15">
+      <c r="BV4" s="12">
         <v>4577</v>
       </c>
-      <c r="BW4" s="15">
+      <c r="BW4" s="12">
         <v>4596</v>
       </c>
-      <c r="BX4" s="15">
+      <c r="BX4" s="12">
         <v>4600</v>
       </c>
-      <c r="BY4" s="15">
+      <c r="BY4" s="12">
         <v>4604</v>
       </c>
-      <c r="BZ4" s="15">
+      <c r="BZ4" s="12">
         <v>4631</v>
       </c>
-      <c r="CA4" s="15">
+      <c r="CA4" s="12">
         <v>4633</v>
       </c>
-      <c r="CB4" s="15">
+      <c r="CB4" s="12">
         <v>4612</v>
       </c>
-      <c r="CC4" s="15">
+      <c r="CC4" s="12">
         <v>4611</v>
       </c>
-      <c r="CD4" s="15">
+      <c r="CD4" s="12">
         <v>4597</v>
       </c>
-      <c r="CE4" s="15">
+      <c r="CE4" s="12">
         <v>4543</v>
       </c>
-      <c r="CF4" s="15">
+      <c r="CF4" s="12">
         <v>4570</v>
       </c>
-      <c r="CG4" s="15">
+      <c r="CG4" s="12">
         <v>4564</v>
       </c>
-      <c r="CH4" s="15">
+      <c r="CH4" s="12">
         <v>4558</v>
       </c>
-      <c r="CI4" s="15">
+      <c r="CI4" s="12">
         <v>4608</v>
       </c>
-      <c r="CJ4" s="15">
+      <c r="CJ4" s="12">
         <v>4624</v>
       </c>
-      <c r="CK4" s="15">
+      <c r="CK4" s="12">
         <v>4653</v>
       </c>
-      <c r="CL4" s="15">
+      <c r="CL4" s="12">
         <v>4671</v>
       </c>
-      <c r="CM4" s="15">
+      <c r="CM4" s="12">
         <v>4668</v>
       </c>
-      <c r="CN4" s="15">
+      <c r="CN4" s="12">
         <v>4669</v>
       </c>
-      <c r="CO4" s="15">
+      <c r="CO4" s="12">
         <v>4672</v>
       </c>
-      <c r="CP4" s="15">
+      <c r="CP4" s="12">
         <v>4694</v>
       </c>
-      <c r="CQ4" s="15">
+      <c r="CQ4" s="12">
         <v>4697</v>
       </c>
-      <c r="CR4" s="15">
+      <c r="CR4" s="12">
         <v>4691</v>
       </c>
-      <c r="CS4" s="15">
+      <c r="CS4" s="12">
         <v>4706</v>
       </c>
-      <c r="CT4" s="15">
+      <c r="CT4" s="12">
         <v>4713</v>
       </c>
-      <c r="CU4" s="15">
+      <c r="CU4" s="12">
         <v>4712</v>
       </c>
-      <c r="CV4" s="15">
+      <c r="CV4" s="12">
         <v>4693</v>
       </c>
-      <c r="CW4" s="15">
+      <c r="CW4" s="12">
         <v>4685</v>
       </c>
-      <c r="CX4" s="15">
+      <c r="CX4" s="12">
         <v>4706</v>
       </c>
-      <c r="CY4" s="15">
+      <c r="CY4" s="12">
         <v>4664</v>
       </c>
       <c r="CZ4" s="7" t="s">
@@ -2114,693 +2099,1000 @@
       <c r="A5" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>7105.7</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>8209.7999999999993</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>8920.2000000000007</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>9974.4</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>8851.7000000000007</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>9829.2000000000007</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>9967.4</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <v>10318.700000000001</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <v>9888.5</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <v>10797</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="12">
         <v>10380</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="12">
         <v>10625.8</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="12">
         <v>9735.4</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="12">
         <v>10283.299999999999</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="12">
         <v>10792.1</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="12">
         <v>11592.6</v>
       </c>
-      <c r="R5" s="13">
+      <c r="R5" s="12">
         <v>11145.3</v>
       </c>
-      <c r="S5" s="13">
+      <c r="S5" s="12">
         <v>12531</v>
       </c>
-      <c r="T5" s="13">
+      <c r="T5" s="12">
         <v>12789</v>
       </c>
-      <c r="U5" s="13">
+      <c r="U5" s="12">
         <v>13506.5</v>
       </c>
-      <c r="V5" s="13">
+      <c r="V5" s="12">
         <v>12706.4</v>
       </c>
-      <c r="W5" s="13">
+      <c r="W5" s="12">
         <v>14267</v>
       </c>
-      <c r="X5" s="13">
+      <c r="X5" s="12">
         <v>14565.3</v>
       </c>
-      <c r="Y5" s="13">
+      <c r="Y5" s="12">
         <v>15325</v>
       </c>
-      <c r="Z5" s="13">
+      <c r="Z5" s="12">
         <v>15424.9</v>
       </c>
-      <c r="AA5" s="13">
+      <c r="AA5" s="12">
         <v>16566.099999999999</v>
       </c>
-      <c r="AB5" s="13">
+      <c r="AB5" s="12">
         <v>16991.599999999999</v>
       </c>
-      <c r="AC5" s="13">
+      <c r="AC5" s="12">
         <v>18922.599999999999</v>
       </c>
-      <c r="AD5" s="13">
+      <c r="AD5" s="12">
         <v>18559.8</v>
       </c>
-      <c r="AE5" s="13">
+      <c r="AE5" s="12">
         <v>19558.599999999999</v>
       </c>
-      <c r="AF5" s="13">
+      <c r="AF5" s="12">
         <v>20401.3</v>
       </c>
-      <c r="AG5" s="13">
+      <c r="AG5" s="12">
         <v>21145.3</v>
       </c>
-      <c r="AH5" s="13">
+      <c r="AH5" s="12">
         <v>21271</v>
       </c>
-      <c r="AI5" s="13">
+      <c r="AI5" s="12">
         <v>22174.799999999999</v>
       </c>
-      <c r="AJ5" s="13">
+      <c r="AJ5" s="12">
         <v>22149.599999999999</v>
       </c>
-      <c r="AK5" s="13">
+      <c r="AK5" s="12">
         <v>20219.900000000001</v>
       </c>
-      <c r="AL5" s="13">
+      <c r="AL5" s="12">
         <v>16339.6</v>
       </c>
-      <c r="AM5" s="13">
+      <c r="AM5" s="12">
         <v>17000.3</v>
       </c>
-      <c r="AN5" s="13">
+      <c r="AN5" s="12">
         <v>17992.8</v>
       </c>
-      <c r="AO5" s="13">
+      <c r="AO5" s="12">
         <v>18950</v>
       </c>
-      <c r="AP5" s="13">
+      <c r="AP5" s="12">
         <v>18258.8</v>
       </c>
-      <c r="AQ5" s="13">
+      <c r="AQ5" s="12">
         <v>19919.099999999999</v>
       </c>
-      <c r="AR5" s="13">
+      <c r="AR5" s="12">
         <v>20794</v>
       </c>
-      <c r="AS5" s="13">
+      <c r="AS5" s="12">
         <v>21884.9</v>
       </c>
-      <c r="AT5" s="13">
+      <c r="AT5" s="12">
         <v>21638.2</v>
       </c>
-      <c r="AU5" s="13">
+      <c r="AU5" s="12">
         <v>21987</v>
       </c>
-      <c r="AV5" s="13">
+      <c r="AV5" s="12">
         <v>22128.400000000001</v>
       </c>
-      <c r="AW5" s="13">
+      <c r="AW5" s="12">
         <v>22137.4</v>
       </c>
-      <c r="AX5" s="13">
+      <c r="AX5" s="12">
         <v>21040.6</v>
       </c>
-      <c r="AY5" s="13">
+      <c r="AY5" s="12">
         <v>21569.8</v>
       </c>
-      <c r="AZ5" s="13">
+      <c r="AZ5" s="12">
         <v>21956.7</v>
       </c>
-      <c r="BA5" s="13">
+      <c r="BA5" s="12">
         <v>21514.6</v>
       </c>
-      <c r="BB5" s="13">
+      <c r="BB5" s="12">
         <v>20723.900000000001</v>
       </c>
-      <c r="BC5" s="13">
+      <c r="BC5" s="12">
         <v>21848.9</v>
       </c>
-      <c r="BD5" s="13">
+      <c r="BD5" s="12">
         <v>22267.7</v>
       </c>
-      <c r="BE5" s="13">
+      <c r="BE5" s="12">
         <v>22441.599999999999</v>
       </c>
-      <c r="BF5" s="13">
+      <c r="BF5" s="12">
         <v>22216.2</v>
       </c>
-      <c r="BG5" s="13">
+      <c r="BG5" s="12">
         <v>23153.3</v>
       </c>
-      <c r="BH5" s="13">
+      <c r="BH5" s="12">
         <v>23506.1</v>
       </c>
-      <c r="BI5" s="13">
+      <c r="BI5" s="12">
         <v>23676.2</v>
       </c>
-      <c r="BJ5" s="13">
+      <c r="BJ5" s="12">
         <v>23486.7</v>
       </c>
-      <c r="BK5" s="13">
+      <c r="BK5" s="12">
         <v>24706.1</v>
       </c>
-      <c r="BL5" s="13">
+      <c r="BL5" s="12">
         <v>24986.799999999999</v>
       </c>
-      <c r="BM5" s="13">
+      <c r="BM5" s="12">
         <v>25501.9</v>
       </c>
-      <c r="BN5" s="13">
+      <c r="BN5" s="12">
         <v>23677.4</v>
       </c>
-      <c r="BO5" s="13">
+      <c r="BO5" s="12">
         <v>25632.400000000001</v>
       </c>
-      <c r="BP5" s="13">
+      <c r="BP5" s="12">
         <v>25575.200000000001</v>
       </c>
-      <c r="BQ5" s="13">
+      <c r="BQ5" s="12">
         <v>25519</v>
       </c>
-      <c r="BR5" s="13">
+      <c r="BR5" s="12">
         <v>26436.9</v>
       </c>
-      <c r="BS5" s="13">
+      <c r="BS5" s="12">
         <v>27751.5</v>
       </c>
-      <c r="BT5" s="13">
+      <c r="BT5" s="12">
         <v>27380.1</v>
       </c>
-      <c r="BU5" s="13">
+      <c r="BU5" s="12">
         <v>27508.2</v>
       </c>
-      <c r="BV5" s="13">
+      <c r="BV5" s="12">
         <v>27481.5</v>
       </c>
-      <c r="BW5" s="13">
+      <c r="BW5" s="12">
         <v>29259.1</v>
       </c>
-      <c r="BX5" s="13">
+      <c r="BX5" s="12">
         <v>27794.7</v>
       </c>
-      <c r="BY5" s="13">
+      <c r="BY5" s="12">
         <v>29367</v>
       </c>
-      <c r="BZ5" s="13">
+      <c r="BZ5" s="12">
         <v>29285.200000000001</v>
       </c>
-      <c r="CA5" s="13">
+      <c r="CA5" s="12">
         <v>30128.6</v>
       </c>
-      <c r="CB5" s="13">
+      <c r="CB5" s="12">
         <v>30315.3</v>
       </c>
-      <c r="CC5" s="13">
+      <c r="CC5" s="12">
         <v>29753.8</v>
       </c>
-      <c r="CD5" s="13">
+      <c r="CD5" s="12">
         <v>28861.3</v>
       </c>
-      <c r="CE5" s="13">
+      <c r="CE5" s="12">
         <v>22050.6</v>
       </c>
-      <c r="CF5" s="13">
+      <c r="CF5" s="12">
         <v>27906.3</v>
       </c>
-      <c r="CG5" s="13">
+      <c r="CG5" s="12">
         <v>29696.6</v>
       </c>
-      <c r="CH5" s="13">
+      <c r="CH5" s="12">
         <v>29430.2</v>
       </c>
-      <c r="CI5" s="13">
+      <c r="CI5" s="12">
         <v>30647.1</v>
       </c>
-      <c r="CJ5" s="13">
+      <c r="CJ5" s="12">
         <v>30412.5</v>
       </c>
-      <c r="CK5" s="13">
+      <c r="CK5" s="12">
         <v>32556.400000000001</v>
       </c>
-      <c r="CL5" s="13">
+      <c r="CL5" s="12">
         <v>35580.400000000001</v>
       </c>
-      <c r="CM5" s="13">
+      <c r="CM5" s="12">
         <v>37586.1</v>
       </c>
-      <c r="CN5" s="13">
+      <c r="CN5" s="12">
         <v>38524.5</v>
       </c>
-      <c r="CO5" s="13">
+      <c r="CO5" s="12">
         <v>39405.599999999999</v>
       </c>
-      <c r="CP5" s="13">
+      <c r="CP5" s="12">
         <v>40834.6</v>
       </c>
-      <c r="CQ5" s="13">
+      <c r="CQ5" s="12">
         <v>40871.699999999997</v>
       </c>
-      <c r="CR5" s="13">
+      <c r="CR5" s="12">
         <v>39582.9</v>
       </c>
-      <c r="CS5" s="13">
+      <c r="CS5" s="12">
         <v>38940.9</v>
       </c>
-      <c r="CT5" s="13">
+      <c r="CT5" s="12">
         <v>38220.800000000003</v>
       </c>
-      <c r="CU5" s="13">
+      <c r="CU5" s="12">
         <v>39143.9</v>
       </c>
-      <c r="CV5" s="13">
+      <c r="CV5" s="12">
         <v>39300.300000000003</v>
       </c>
-      <c r="CW5" s="13">
+      <c r="CW5" s="12">
         <v>38681.4</v>
       </c>
-      <c r="CX5" s="13">
+      <c r="CX5" s="12">
         <v>38480.6</v>
       </c>
-      <c r="CY5" s="13">
+      <c r="CY5" s="12">
         <v>38847.4</v>
       </c>
-      <c r="CZ5" s="10"/>
-      <c r="DA5" s="10"/>
-      <c r="DB5" s="10"/>
-      <c r="DC5" s="10"/>
-      <c r="DD5" s="10"/>
-      <c r="DE5" s="10"/>
-      <c r="DF5" s="10"/>
-      <c r="DG5" s="10"/>
-      <c r="DH5" s="10"/>
-      <c r="DI5" s="10"/>
-      <c r="DJ5" s="10"/>
-      <c r="DK5" s="10"/>
-      <c r="DL5" s="10"/>
-      <c r="DM5" s="10"/>
-      <c r="DN5" s="10"/>
-      <c r="DO5" s="10"/>
-      <c r="DP5" s="10"/>
-      <c r="DQ5" s="10"/>
-      <c r="DR5" s="10"/>
-      <c r="DS5" s="10"/>
-      <c r="DT5" s="10"/>
-      <c r="DU5" s="10"/>
-      <c r="DV5" s="10"/>
-      <c r="DW5" s="10"/>
-      <c r="DX5" s="10"/>
-      <c r="DY5" s="10"/>
-      <c r="DZ5" s="10"/>
-      <c r="EA5" s="10"/>
-      <c r="EB5" s="10"/>
-      <c r="EC5" s="10"/>
-      <c r="ED5" s="10"/>
-      <c r="EE5" s="10"/>
-      <c r="EF5" s="10"/>
-      <c r="EG5" s="10"/>
-      <c r="EH5" s="10"/>
-      <c r="EI5" s="10"/>
-      <c r="EJ5" s="10"/>
-      <c r="EK5" s="10"/>
-      <c r="EL5" s="10"/>
-      <c r="EM5" s="10"/>
-      <c r="EN5" s="10"/>
-      <c r="EO5" s="10"/>
-      <c r="EP5" s="10"/>
-      <c r="EQ5" s="10"/>
-      <c r="ER5" s="10"/>
-      <c r="ES5" s="10"/>
-      <c r="ET5" s="10"/>
-      <c r="EU5" s="10"/>
+      <c r="CZ5" s="9"/>
+      <c r="DA5" s="9"/>
+      <c r="DB5" s="9"/>
+      <c r="DC5" s="9"/>
+      <c r="DD5" s="9"/>
+      <c r="DE5" s="9"/>
+      <c r="DF5" s="9"/>
+      <c r="DG5" s="9"/>
+      <c r="DH5" s="9"/>
+      <c r="DI5" s="9"/>
+      <c r="DJ5" s="9"/>
+      <c r="DK5" s="9"/>
+      <c r="DL5" s="9"/>
+      <c r="DM5" s="9"/>
+      <c r="DN5" s="9"/>
+      <c r="DO5" s="9"/>
+      <c r="DP5" s="9"/>
+      <c r="DQ5" s="9"/>
+      <c r="DR5" s="9"/>
+      <c r="DS5" s="9"/>
+      <c r="DT5" s="9"/>
+      <c r="DU5" s="9"/>
+      <c r="DV5" s="9"/>
+      <c r="DW5" s="9"/>
+      <c r="DX5" s="9"/>
+      <c r="DY5" s="9"/>
+      <c r="DZ5" s="9"/>
+      <c r="EA5" s="9"/>
+      <c r="EB5" s="9"/>
+      <c r="EC5" s="9"/>
+      <c r="ED5" s="9"/>
+      <c r="EE5" s="9"/>
+      <c r="EF5" s="9"/>
+      <c r="EG5" s="9"/>
+      <c r="EH5" s="9"/>
+      <c r="EI5" s="9"/>
+      <c r="EJ5" s="9"/>
+      <c r="EK5" s="9"/>
+      <c r="EL5" s="9"/>
+      <c r="EM5" s="9"/>
+      <c r="EN5" s="9"/>
+      <c r="EO5" s="9"/>
+      <c r="EP5" s="9"/>
+      <c r="EQ5" s="9"/>
+      <c r="ER5" s="9"/>
+      <c r="ES5" s="9"/>
+      <c r="ET5" s="9"/>
+      <c r="EU5" s="9"/>
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>8090</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>8090</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>8090</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>8090</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>8440</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>8440</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>8440</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <v>8440</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>8860</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="13">
         <v>8860</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="13">
         <v>8860</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="13">
         <v>8860</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="13">
         <v>9240</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="13">
         <v>9240</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="13">
         <v>9240</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="13">
         <v>9240</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="13">
         <v>9720</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="13">
         <v>9720</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="13">
         <v>9720</v>
       </c>
-      <c r="U6" s="14">
+      <c r="U6" s="13">
         <v>9720</v>
       </c>
-      <c r="V6" s="14">
+      <c r="V6" s="13">
         <v>10160</v>
       </c>
-      <c r="W6" s="14">
+      <c r="W6" s="13">
         <v>10160</v>
       </c>
-      <c r="X6" s="14">
+      <c r="X6" s="13">
         <v>10160</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Y6" s="13">
         <v>10160</v>
       </c>
-      <c r="Z6" s="14">
+      <c r="Z6" s="13">
         <v>10570</v>
       </c>
-      <c r="AA6" s="14">
+      <c r="AA6" s="13">
         <v>10570</v>
       </c>
-      <c r="AB6" s="14">
+      <c r="AB6" s="13">
         <v>10570</v>
       </c>
-      <c r="AC6" s="14">
+      <c r="AC6" s="13">
         <v>10570</v>
       </c>
-      <c r="AD6" s="14">
+      <c r="AD6" s="13">
         <v>10630</v>
       </c>
-      <c r="AE6" s="14">
+      <c r="AE6" s="13">
         <v>10630</v>
       </c>
-      <c r="AF6" s="14">
+      <c r="AF6" s="13">
         <v>10630</v>
       </c>
-      <c r="AG6" s="14">
+      <c r="AG6" s="13">
         <v>10630</v>
       </c>
-      <c r="AH6" s="14">
+      <c r="AH6" s="13">
         <v>10750</v>
       </c>
-      <c r="AI6" s="14">
+      <c r="AI6" s="13">
         <v>10750</v>
       </c>
-      <c r="AJ6" s="14">
+      <c r="AJ6" s="13">
         <v>10750</v>
       </c>
-      <c r="AK6" s="14">
+      <c r="AK6" s="13">
         <v>10750</v>
       </c>
-      <c r="AL6" s="14">
+      <c r="AL6" s="13">
         <v>10040</v>
       </c>
-      <c r="AM6" s="14">
+      <c r="AM6" s="13">
         <v>10040</v>
       </c>
-      <c r="AN6" s="14">
+      <c r="AN6" s="13">
         <v>10040</v>
       </c>
-      <c r="AO6" s="14">
+      <c r="AO6" s="13">
         <v>10040</v>
       </c>
-      <c r="AP6" s="14">
+      <c r="AP6" s="13">
         <v>10170</v>
       </c>
-      <c r="AQ6" s="14">
+      <c r="AQ6" s="13">
         <v>10170</v>
       </c>
-      <c r="AR6" s="14">
+      <c r="AR6" s="13">
         <v>10170</v>
       </c>
-      <c r="AS6" s="14">
+      <c r="AS6" s="13">
         <v>10170</v>
       </c>
-      <c r="AT6" s="14">
+      <c r="AT6" s="13">
         <v>10400</v>
       </c>
-      <c r="AU6" s="14">
+      <c r="AU6" s="13">
         <v>10400</v>
       </c>
-      <c r="AV6" s="14">
+      <c r="AV6" s="13">
         <v>10400</v>
       </c>
-      <c r="AW6" s="14">
+      <c r="AW6" s="13">
         <v>10400</v>
       </c>
-      <c r="AX6" s="14">
+      <c r="AX6" s="13">
         <v>10320</v>
       </c>
-      <c r="AY6" s="14">
+      <c r="AY6" s="13">
         <v>10320</v>
       </c>
-      <c r="AZ6" s="14">
+      <c r="AZ6" s="13">
         <v>10320</v>
       </c>
-      <c r="BA6" s="14">
+      <c r="BA6" s="13">
         <v>10320</v>
       </c>
-      <c r="BB6" s="14">
+      <c r="BB6" s="13">
         <v>10570</v>
       </c>
-      <c r="BC6" s="14">
+      <c r="BC6" s="13">
         <v>10570</v>
       </c>
-      <c r="BD6" s="14">
+      <c r="BD6" s="13">
         <v>10570</v>
       </c>
-      <c r="BE6" s="14">
+      <c r="BE6" s="13">
         <v>10570</v>
       </c>
-      <c r="BF6" s="14">
+      <c r="BF6" s="13">
         <v>11070</v>
       </c>
-      <c r="BG6" s="14">
+      <c r="BG6" s="13">
         <v>11070</v>
       </c>
-      <c r="BH6" s="14">
+      <c r="BH6" s="13">
         <v>11070</v>
       </c>
-      <c r="BI6" s="14">
+      <c r="BI6" s="13">
         <v>11070</v>
       </c>
-      <c r="BJ6" s="14">
+      <c r="BJ6" s="13">
         <v>11520</v>
       </c>
-      <c r="BK6" s="14">
+      <c r="BK6" s="13">
         <v>11520</v>
       </c>
-      <c r="BL6" s="14">
+      <c r="BL6" s="13">
         <v>11520</v>
       </c>
-      <c r="BM6" s="14">
+      <c r="BM6" s="13">
         <v>11520</v>
       </c>
-      <c r="BN6" s="14">
+      <c r="BN6" s="13">
         <v>11850</v>
       </c>
-      <c r="BO6" s="14">
+      <c r="BO6" s="13">
         <v>11850</v>
       </c>
-      <c r="BP6" s="14">
+      <c r="BP6" s="13">
         <v>11850</v>
       </c>
-      <c r="BQ6" s="14">
+      <c r="BQ6" s="13">
         <v>11850</v>
       </c>
-      <c r="BR6" s="14">
+      <c r="BR6" s="13">
         <v>12380</v>
       </c>
-      <c r="BS6" s="14">
+      <c r="BS6" s="13">
         <v>12380</v>
       </c>
-      <c r="BT6" s="14">
+      <c r="BT6" s="13">
         <v>12380</v>
       </c>
-      <c r="BU6" s="14">
+      <c r="BU6" s="13">
         <v>12380</v>
       </c>
-      <c r="BV6" s="14">
+      <c r="BV6" s="13">
         <v>13100</v>
       </c>
-      <c r="BW6" s="14">
+      <c r="BW6" s="13">
         <v>13100</v>
       </c>
-      <c r="BX6" s="14">
+      <c r="BX6" s="13">
         <v>13100</v>
       </c>
-      <c r="BY6" s="14">
+      <c r="BY6" s="13">
         <v>13100</v>
       </c>
-      <c r="BZ6" s="14">
+      <c r="BZ6" s="13">
         <v>13780</v>
       </c>
-      <c r="CA6" s="14">
+      <c r="CA6" s="13">
         <v>13780</v>
       </c>
-      <c r="CB6" s="14">
+      <c r="CB6" s="13">
         <v>13780</v>
       </c>
-      <c r="CC6" s="14">
+      <c r="CC6" s="13">
         <v>13780</v>
       </c>
-      <c r="CD6" s="14">
+      <c r="CD6" s="13">
         <v>13210</v>
       </c>
-      <c r="CE6" s="14">
+      <c r="CE6" s="13">
         <v>13210</v>
       </c>
-      <c r="CF6" s="14">
+      <c r="CF6" s="13">
         <v>13210</v>
       </c>
-      <c r="CG6" s="14">
+      <c r="CG6" s="13">
         <v>13210</v>
       </c>
-      <c r="CH6" s="14">
+      <c r="CH6" s="13">
         <v>14230</v>
       </c>
-      <c r="CI6" s="14">
+      <c r="CI6" s="13">
         <v>14230</v>
       </c>
-      <c r="CJ6" s="14">
+      <c r="CJ6" s="13">
         <v>14230</v>
       </c>
-      <c r="CK6" s="14">
+      <c r="CK6" s="13">
         <v>14230</v>
       </c>
-      <c r="CL6" s="14">
+      <c r="CL6" s="13">
         <v>14860</v>
       </c>
-      <c r="CM6" s="14">
+      <c r="CM6" s="13">
         <v>14860</v>
       </c>
-      <c r="CN6" s="14">
+      <c r="CN6" s="13">
         <v>14860</v>
       </c>
-      <c r="CO6" s="14">
+      <c r="CO6" s="13">
         <v>14860</v>
       </c>
-      <c r="CP6" s="14">
+      <c r="CP6" s="13">
         <v>14760</v>
       </c>
-      <c r="CQ6" s="14">
+      <c r="CQ6" s="13">
         <v>14760</v>
       </c>
-      <c r="CR6" s="14">
+      <c r="CR6" s="13">
         <v>14760</v>
       </c>
-      <c r="CS6" s="14">
+      <c r="CS6" s="13">
         <v>14760</v>
       </c>
-      <c r="CT6" s="14">
+      <c r="CT6" s="13">
         <v>14880</v>
       </c>
-      <c r="CU6" s="14">
+      <c r="CU6" s="13">
         <v>14880</v>
       </c>
-      <c r="CV6" s="14">
+      <c r="CV6" s="13">
         <v>14880</v>
       </c>
-      <c r="CW6" s="14">
+      <c r="CW6" s="13">
         <v>14880</v>
       </c>
-      <c r="CX6" s="13"/>
-      <c r="CY6" s="13"/>
+      <c r="CX6" s="12"/>
+      <c r="CY6" s="12"/>
+    </row>
+    <row r="7" spans="1:151" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="15">
+        <v>9.8036101690000006</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9.8036101690000006</v>
+      </c>
+      <c r="D7" s="3">
+        <v>9.8036101690000006</v>
+      </c>
+      <c r="E7" s="3">
+        <v>9.8036101690000006</v>
+      </c>
+      <c r="F7" s="3">
+        <v>9.1168091170000007</v>
+      </c>
+      <c r="G7" s="3">
+        <v>9.1168091170000007</v>
+      </c>
+      <c r="H7" s="3">
+        <v>9.1168091170000007</v>
+      </c>
+      <c r="I7" s="3">
+        <v>9.1168091170000007</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5.2654482160000002</v>
+      </c>
+      <c r="K7" s="3">
+        <v>5.2654482160000002</v>
+      </c>
+      <c r="L7" s="3">
+        <v>5.2654482160000002</v>
+      </c>
+      <c r="M7" s="3">
+        <v>5.2654482160000002</v>
+      </c>
+      <c r="N7" s="3">
+        <v>4.6610169490000004</v>
+      </c>
+      <c r="O7" s="3">
+        <v>4.6610169490000004</v>
+      </c>
+      <c r="P7" s="3">
+        <v>4.6610169490000004</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>4.6610169490000004</v>
+      </c>
+      <c r="R7" s="3">
+        <v>6.7443467960000003</v>
+      </c>
+      <c r="S7" s="3">
+        <v>6.7443467960000003</v>
+      </c>
+      <c r="T7" s="3">
+        <v>6.7443467960000003</v>
+      </c>
+      <c r="U7" s="3">
+        <v>6.7443467960000003</v>
+      </c>
+      <c r="V7" s="3">
+        <v>3.5615171139999999</v>
+      </c>
+      <c r="W7" s="3">
+        <v>3.5615171139999999</v>
+      </c>
+      <c r="X7" s="3">
+        <v>3.5615171139999999</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>3.5615171139999999</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>3.930326038</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>3.930326038</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>3.930326038</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>3.930326038</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>7.9587451649999998</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>7.9587451649999998</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>7.9587451649999998</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>7.9587451649999998</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>6.0425125389999996</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>6.0425125389999996</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>6.0425125389999996</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>6.0425125389999996</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>4.2117117119999996</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>4.2117117119999996</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>4.2117117119999996</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>4.2117117119999996</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>4.8555579570000003</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>4.8555579570000003</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>4.8555579570000003</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>4.8555579570000003</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>3.9299209890000002</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>3.9299209890000002</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>3.9299209890000002</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>3.9299209890000002</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>5.6521451709999999</v>
+      </c>
+      <c r="AY7" s="3">
+        <v>5.6521451709999999</v>
+      </c>
+      <c r="AZ7" s="3">
+        <v>5.6521451709999999</v>
+      </c>
+      <c r="BA7" s="3">
+        <v>5.6521451709999999</v>
+      </c>
+      <c r="BB7" s="3">
+        <v>1.7331998500000001</v>
+      </c>
+      <c r="BC7" s="3">
+        <v>1.7331998500000001</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>1.7331998500000001</v>
+      </c>
+      <c r="BE7" s="3">
+        <v>1.7331998500000001</v>
+      </c>
+      <c r="BF7" s="3">
+        <v>-0.22756627099999999</v>
+      </c>
+      <c r="BG7" s="3">
+        <v>-0.22756627099999999</v>
+      </c>
+      <c r="BH7" s="3">
+        <v>-0.22756627099999999</v>
+      </c>
+      <c r="BI7" s="3">
+        <v>-0.22756627099999999</v>
+      </c>
+      <c r="BJ7" s="3">
+        <v>-6.164468E-2</v>
+      </c>
+      <c r="BK7" s="3">
+        <v>-6.164468E-2</v>
+      </c>
+      <c r="BL7" s="3">
+        <v>-6.164468E-2</v>
+      </c>
+      <c r="BM7" s="3">
+        <v>-6.164468E-2</v>
+      </c>
+      <c r="BN7" s="3">
+        <v>0.39476930700000001</v>
+      </c>
+      <c r="BO7" s="3">
+        <v>0.39476930700000001</v>
+      </c>
+      <c r="BP7" s="3">
+        <v>0.39476930700000001</v>
+      </c>
+      <c r="BQ7" s="3">
+        <v>0.39476930700000001</v>
+      </c>
+      <c r="BR7" s="3">
+        <v>2.3482428120000001</v>
+      </c>
+      <c r="BS7" s="3">
+        <v>2.3482428120000001</v>
+      </c>
+      <c r="BT7" s="3">
+        <v>2.3482428120000001</v>
+      </c>
+      <c r="BU7" s="3">
+        <v>2.3482428120000001</v>
+      </c>
+      <c r="BV7" s="3">
+        <v>2.8502479260000002</v>
+      </c>
+      <c r="BW7" s="3">
+        <v>2.8502479260000002</v>
+      </c>
+      <c r="BX7" s="3">
+        <v>2.8502479260000002</v>
+      </c>
+      <c r="BY7" s="3">
+        <v>2.8502479260000002</v>
+      </c>
+      <c r="BZ7" s="3">
+        <v>3.3385863539999998</v>
+      </c>
+      <c r="CA7" s="3">
+        <v>3.3385863539999998</v>
+      </c>
+      <c r="CB7" s="3">
+        <v>3.3385863539999998</v>
+      </c>
+      <c r="CC7" s="3">
+        <v>3.3385863539999998</v>
+      </c>
+      <c r="CD7" s="3">
+        <v>3.3267438579999999</v>
+      </c>
+      <c r="CE7" s="3">
+        <v>3.3267438579999999</v>
+      </c>
+      <c r="CF7" s="3">
+        <v>3.3267438579999999</v>
+      </c>
+      <c r="CG7" s="3">
+        <v>3.3267438579999999</v>
+      </c>
+      <c r="CH7" s="3">
+        <v>5.1109653440000002</v>
+      </c>
+      <c r="CI7" s="3">
+        <v>5.1109653440000002</v>
+      </c>
+      <c r="CJ7" s="3">
+        <v>5.1109653440000002</v>
+      </c>
+      <c r="CK7" s="3">
+        <v>5.1109653440000002</v>
+      </c>
+      <c r="CL7" s="3">
+        <v>14.608143950000001</v>
+      </c>
+      <c r="CM7" s="3">
+        <v>14.608143950000001</v>
+      </c>
+      <c r="CN7" s="3">
+        <v>14.608143950000001</v>
+      </c>
+      <c r="CO7" s="3">
+        <v>14.608143950000001</v>
+      </c>
+      <c r="CP7" s="3">
+        <v>17.124965970000002</v>
+      </c>
+      <c r="CQ7" s="3">
+        <v>17.124965970000002</v>
+      </c>
+      <c r="CR7" s="3">
+        <v>17.124965970000002</v>
+      </c>
+      <c r="CS7" s="3">
+        <v>17.124965970000002</v>
+      </c>
+      <c r="CT7" s="3">
+        <v>3.703703704</v>
+      </c>
+      <c r="CU7" s="3">
+        <v>3.703703704</v>
+      </c>
+      <c r="CV7" s="3">
+        <v>3.703703704</v>
+      </c>
+      <c r="CW7" s="3">
+        <v>3.703703704</v>
+      </c>
+      <c r="CX7" s="3"/>
+      <c r="CY7" s="3"/>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/dataset_1.xlsx
+++ b/data/dataset_1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="131">
   <si>
     <t>2000-Q1</t>
   </si>
@@ -407,6 +407,12 @@
   </si>
   <si>
     <t>FP.CPI.TOTL.ZG</t>
+  </si>
+  <si>
+    <t>demo_pjan</t>
+  </si>
+  <si>
+    <t>Populația total</t>
   </si>
 </sst>
 </file>
@@ -848,7 +854,7 @@
   <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -963,10 +969,18 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="E9" s="11"/>
     </row>
   </sheetData>
@@ -979,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EU20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CQ15" sqref="CQ15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3068,6 +3082,311 @@
       <c r="CX7" s="3"/>
       <c r="CY7" s="3"/>
     </row>
+    <row r="8" spans="1:151" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10221644</v>
+      </c>
+      <c r="C8" s="4">
+        <v>10221644</v>
+      </c>
+      <c r="D8" s="4">
+        <v>10221644</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10221644</v>
+      </c>
+      <c r="F8" s="4">
+        <v>10200298</v>
+      </c>
+      <c r="G8" s="4">
+        <v>10200298</v>
+      </c>
+      <c r="H8" s="4">
+        <v>10200298</v>
+      </c>
+      <c r="I8" s="4">
+        <v>10200298</v>
+      </c>
+      <c r="J8" s="4">
+        <v>10174853</v>
+      </c>
+      <c r="K8" s="4">
+        <v>10174853</v>
+      </c>
+      <c r="L8" s="4">
+        <v>10174853</v>
+      </c>
+      <c r="M8" s="4">
+        <v>10174853</v>
+      </c>
+      <c r="N8" s="4">
+        <v>10142362</v>
+      </c>
+      <c r="O8" s="4">
+        <v>10142362</v>
+      </c>
+      <c r="P8" s="4">
+        <v>10142362</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>10142362</v>
+      </c>
+      <c r="R8" s="4">
+        <v>10116742</v>
+      </c>
+      <c r="S8" s="4">
+        <v>10116742</v>
+      </c>
+      <c r="T8" s="4">
+        <v>10116742</v>
+      </c>
+      <c r="U8" s="4">
+        <v>10116742</v>
+      </c>
+      <c r="V8" s="4">
+        <v>10097549</v>
+      </c>
+      <c r="W8" s="4">
+        <v>10097549</v>
+      </c>
+      <c r="X8" s="4">
+        <v>10097549</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>10097549</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>10076581</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>10076581</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>10076581</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>10076581</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>10066158</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>10066158</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>10066158</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>10066158</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>10045401</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>10045401</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>10045401</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>10045401</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>10030975</v>
+      </c>
+      <c r="AM8" s="4">
+        <v>10030975</v>
+      </c>
+      <c r="AN8" s="4">
+        <v>10030975</v>
+      </c>
+      <c r="AO8" s="4">
+        <v>10030975</v>
+      </c>
+      <c r="AP8" s="4">
+        <v>10014324</v>
+      </c>
+      <c r="AQ8" s="4">
+        <v>10014324</v>
+      </c>
+      <c r="AR8" s="4">
+        <v>10014324</v>
+      </c>
+      <c r="AS8" s="4">
+        <v>10014324</v>
+      </c>
+      <c r="AT8" s="4">
+        <v>9985722</v>
+      </c>
+      <c r="AU8" s="4">
+        <v>9985722</v>
+      </c>
+      <c r="AV8" s="4">
+        <v>9985722</v>
+      </c>
+      <c r="AW8" s="4">
+        <v>9985722</v>
+      </c>
+      <c r="AX8" s="4">
+        <v>9931925</v>
+      </c>
+      <c r="AY8" s="4">
+        <v>9931925</v>
+      </c>
+      <c r="AZ8" s="4">
+        <v>9931925</v>
+      </c>
+      <c r="BA8" s="4">
+        <v>9931925</v>
+      </c>
+      <c r="BB8" s="4">
+        <v>9895250</v>
+      </c>
+      <c r="BC8" s="4">
+        <v>9895250</v>
+      </c>
+      <c r="BD8" s="4">
+        <v>9895250</v>
+      </c>
+      <c r="BE8" s="4">
+        <v>9895250</v>
+      </c>
+      <c r="BF8" s="4">
+        <v>9850217</v>
+      </c>
+      <c r="BG8" s="4">
+        <v>9850217</v>
+      </c>
+      <c r="BH8" s="4">
+        <v>9850217</v>
+      </c>
+      <c r="BI8" s="4">
+        <v>9850217</v>
+      </c>
+      <c r="BJ8" s="4">
+        <v>9815858</v>
+      </c>
+      <c r="BK8" s="4">
+        <v>9815858</v>
+      </c>
+      <c r="BL8" s="4">
+        <v>9815858</v>
+      </c>
+      <c r="BM8" s="4">
+        <v>9815858</v>
+      </c>
+      <c r="BN8" s="4">
+        <v>9779652</v>
+      </c>
+      <c r="BO8" s="4">
+        <v>9779652</v>
+      </c>
+      <c r="BP8" s="4">
+        <v>9779652</v>
+      </c>
+      <c r="BQ8" s="4">
+        <v>9779652</v>
+      </c>
+      <c r="BR8" s="4">
+        <v>9739857</v>
+      </c>
+      <c r="BS8" s="4">
+        <v>9739857</v>
+      </c>
+      <c r="BT8" s="4">
+        <v>9739857</v>
+      </c>
+      <c r="BU8" s="4">
+        <v>9739857</v>
+      </c>
+      <c r="BV8" s="4">
+        <v>9713655</v>
+      </c>
+      <c r="BW8" s="4">
+        <v>9713655</v>
+      </c>
+      <c r="BX8" s="4">
+        <v>9713655</v>
+      </c>
+      <c r="BY8" s="4">
+        <v>9713655</v>
+      </c>
+      <c r="BZ8" s="4">
+        <v>9700272</v>
+      </c>
+      <c r="CA8" s="4">
+        <v>9700272</v>
+      </c>
+      <c r="CB8" s="4">
+        <v>9700272</v>
+      </c>
+      <c r="CC8" s="4">
+        <v>9700272</v>
+      </c>
+      <c r="CD8" s="4">
+        <v>9689376</v>
+      </c>
+      <c r="CE8" s="4">
+        <v>9689376</v>
+      </c>
+      <c r="CF8" s="4">
+        <v>9689376</v>
+      </c>
+      <c r="CG8" s="4">
+        <v>9689376</v>
+      </c>
+      <c r="CH8" s="4">
+        <v>9651461</v>
+      </c>
+      <c r="CI8" s="4">
+        <v>9651461</v>
+      </c>
+      <c r="CJ8" s="4">
+        <v>9651461</v>
+      </c>
+      <c r="CK8" s="4">
+        <v>9651461</v>
+      </c>
+      <c r="CL8" s="4">
+        <v>9610403</v>
+      </c>
+      <c r="CM8" s="4">
+        <v>9610403</v>
+      </c>
+      <c r="CN8" s="4">
+        <v>9610403</v>
+      </c>
+      <c r="CO8" s="4">
+        <v>9610403</v>
+      </c>
+      <c r="CP8" s="4">
+        <v>9599744</v>
+      </c>
+      <c r="CQ8" s="4">
+        <v>9599744</v>
+      </c>
+      <c r="CR8" s="4">
+        <v>9599744</v>
+      </c>
+      <c r="CS8" s="4">
+        <v>9599744</v>
+      </c>
+      <c r="CT8" s="4">
+        <v>9584627</v>
+      </c>
+      <c r="CU8" s="4">
+        <v>9584627</v>
+      </c>
+      <c r="CV8" s="4">
+        <v>9584627</v>
+      </c>
+      <c r="CW8" s="4">
+        <v>9584627</v>
+      </c>
+    </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
